--- a/biology/Médecine/Syndrome_de_Zellweger/Syndrome_de_Zellweger.xlsx
+++ b/biology/Médecine/Syndrome_de_Zellweger/Syndrome_de_Zellweger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Zellweger est une maladie de la fonction peroxysomale. Le syndrome de Zellweger est la manifestation la plus grave de mutations géniques qui se présentent également dans :
 l'adrénoleucodystrophie néonatale autosomique (en) ;
@@ -514,9 +526,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Due à la mutation du gène [1]PEX 1.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Due à la mutation du gène PEX 1.
 Aussi appelée syndrome des peroxysomes vides causant de graves désordres sur le plan neurologique, rénal et hépatique. Cette maladie est très grave, et même létale.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dosage des acides gras à très longues chaînes urinaires et sanguins et doit être confirmé par culture de fibroblaste. La biopsie hépatique est parfois nécessaire.</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Transmission autosomique récessive</t>
         </is>
